--- a/1. Process/1.1 Process/Process.xlsx
+++ b/1. Process/1.1 Process/Process.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HOANG THANH AN\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HOANG THANH AN\OneDrive\Tài liệu\GitHub\team4_cs246_VIS\1. Process\1.1 Process\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3172E1AB-044B-4CE6-8C7E-626073280935}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F77F0173-1037-4E23-9352-A013C666874A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{135CCEFE-80D5-498B-BA7D-7BE661C20C2D}"/>
+    <workbookView xWindow="5760" yWindow="2220" windowWidth="17280" windowHeight="8964" xr2:uid="{135CCEFE-80D5-498B-BA7D-7BE661C20C2D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="26">
   <si>
     <t>STT</t>
   </si>
@@ -88,6 +88,21 @@
   </si>
   <si>
     <t>Complete</t>
+  </si>
+  <si>
+    <t>Công việc</t>
+  </si>
+  <si>
+    <t>Người làm</t>
+  </si>
+  <si>
+    <t>Từ</t>
+  </si>
+  <si>
+    <t>Đến</t>
+  </si>
+  <si>
+    <t>Tình trạng</t>
   </si>
 </sst>
 </file>
@@ -186,9 +201,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -207,6 +219,9 @@
     <xf numFmtId="16" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -525,7 +540,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -539,206 +554,206 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>0</v>
+      <c r="B1" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="5">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="9"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="8"/>
     </row>
     <row r="3" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="11">
         <v>45352</v>
       </c>
-      <c r="E3" s="12">
+      <c r="E3" s="11">
         <v>45364</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="9" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D4" s="11">
         <v>45352</v>
       </c>
-      <c r="E4" s="12">
+      <c r="E4" s="11">
         <v>45364</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="9" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="11">
         <v>45352</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="11">
         <v>45364</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="9" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="11">
         <v>45352</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="11">
         <v>45364</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="F6" s="9" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A7" s="5">
+      <c r="A7" s="4">
         <v>2</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="9"/>
     </row>
     <row r="8" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="11">
         <v>45352</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8" s="11">
         <v>45364</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="F8" s="9" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D9" s="11">
         <v>45352</v>
       </c>
-      <c r="E9" s="12">
+      <c r="E9" s="11">
         <v>45364</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="F9" s="9" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D10" s="11">
         <v>45352</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E10" s="11">
         <v>45364</v>
       </c>
-      <c r="F10" s="10" t="s">
+      <c r="F10" s="9" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D11" s="11">
         <v>45352</v>
       </c>
-      <c r="E11" s="12">
+      <c r="E11" s="11">
         <v>45364</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="F11" s="9" t="s">
         <v>20</v>
       </c>
     </row>
